--- a/00_config/xlsx/ods.xlsx
+++ b/00_config/xlsx/ods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\autoload\00_config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67DCA0-33DB-4061-856E-43276AF5FA38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E36ABA-795C-4EAB-BAD3-A3C4790DC042}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="629" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ODS_col_lvl!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
   <si>
     <t>修改日期</t>
   </si>
@@ -82,36 +89,6 @@
     <t>location（全路径）</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>英文表名</t>
-  </si>
-  <si>
-    <t>维度标识</t>
-  </si>
-  <si>
-    <t>英文字段名</t>
-  </si>
-  <si>
-    <t>目标字段类型</t>
-  </si>
-  <si>
-    <t>目标字段长度</t>
-  </si>
-  <si>
-    <t>TABLE_SCHEMA</t>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>COLUMN_NAME</t>
-  </si>
-  <si>
     <t>ODS_TB_O_DG</t>
   </si>
   <si>
@@ -123,26 +100,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>src</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -163,31 +120,111 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ODS_TB_O_DG_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>分区字段</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>源库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>源表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>源表信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>源表字段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一主键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_SORT</t>
+  </si>
+  <si>
+    <t>C_CARDNO</t>
+  </si>
+  <si>
+    <t>C_ORIG_DEPOSIT</t>
+  </si>
+  <si>
+    <t>C_AMOUNT</t>
+  </si>
+  <si>
+    <t>C_DEPOSIT</t>
+  </si>
+  <si>
+    <t>C_CUSTOMER</t>
+  </si>
+  <si>
+    <t>C_USE_SCORE</t>
+  </si>
+  <si>
+    <t>C_NOTE</t>
+  </si>
+  <si>
+    <t>C_VERIFY</t>
+  </si>
+  <si>
+    <t>C_VERIFY_NEW</t>
+  </si>
+  <si>
+    <t>C_STATUS</t>
+  </si>
+  <si>
+    <t>C_S_DATE</t>
+  </si>
+  <si>
+    <t>C_E_DATE</t>
+  </si>
+  <si>
+    <t>C_DEPOSIT_TYPE</t>
+  </si>
+  <si>
+    <t>C_DEPOSIT_SDT</t>
+  </si>
+  <si>
+    <t>C_DEPOSIT_EDT</t>
+  </si>
+  <si>
+    <t>C_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>库名</t>
+    <t>字段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRC_TB_O_BG</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRC_TB_O_BG_TIME</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODS_TB_O_DG_TIME</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,15 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -341,7 +369,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -351,18 +379,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="??" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
@@ -680,7 +709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -727,330 +756,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="18.875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
+      <c r="A3" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="9"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="9"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="8"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="8"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B89" s="8"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B90" s="8"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="8"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="8"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B93" s="8"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1109,14 +1138,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1133,218 +1162,761 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241C2BB2-D19F-4FD9-ABA1-C96CC2D47CAC}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="11.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="38.625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="20" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9" style="11"/>
-    <col min="14" max="14" width="14.375" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="11.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="14.375" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f>CONCATENATE(D19)</f>
+        <v>C_ID</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" ref="H20:H35" si="0">CONCATENATE(D20)</f>
+        <v>C_SORT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_CARDNO</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="F22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_ORIG_DEPOSIT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_AMOUNT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_DEPOSIT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_CUSTOMER</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_USE_SCORE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_NOTE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_VERIFY</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_VERIFY_NEW</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="11">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="F30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_STATUS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>44</v>
+      <c r="F31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_S_DATE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_E_DATE</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_DEPOSIT_TYPE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_DEPOSIT_SDT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_DEPOSIT_EDT</v>
       </c>
     </row>
   </sheetData>
